--- a/管理/素材用エクセル/素材リスト.xlsx
+++ b/管理/素材用エクセル/素材リスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHub Repository\LoveBullet\管理\素材用エクセル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EBCBE4-57E8-42E3-A1C5-DC0133E5325B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5330E8-1BB2-4EA8-B65B-0168BE8542B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{EB4999F7-EE9A-4807-BC58-46A21074A228}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{EB4999F7-EE9A-4807-BC58-46A21074A228}"/>
   </bookViews>
   <sheets>
     <sheet name="素材Texture＿汎用" sheetId="1" r:id="rId1"/>
@@ -733,7 +733,84 @@
     <cellStyle name="チェック セル" xfId="1" builtinId="23"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="39">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -779,56 +856,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -920,139 +948,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1424,8 +1319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C011F36-36E4-4E52-89D7-E4D75630496C}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2092,38 +1987,38 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D3:D107 E30">
-    <cfRule type="cellIs" dxfId="53" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="34" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D93 E30">
-    <cfRule type="cellIs" dxfId="52" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="33" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D103 E30">
-    <cfRule type="cellIs" dxfId="51" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="31" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="32" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E9">
-    <cfRule type="cellIs" dxfId="49" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="30" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E9">
-    <cfRule type="cellIs" dxfId="48" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="29" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E9">
-    <cfRule type="cellIs" dxfId="47" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="27" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="28" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2182,12 +2077,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F74">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D89 E30">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"Result"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2200,7 +2095,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C3" sqref="C3:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2650,30 +2545,30 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D3:D59">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E30">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E30">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E30">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E30">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"Result"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2686,7 +2581,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="D3" sqref="D3:D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3016,25 +2911,25 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D3:E4">
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E4">
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E4">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F74">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3046,8 +2941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550B7D2F-3DC1-4986-8938-4A702B9CDE4A}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3403,7 +3298,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="E3:E74">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3415,7 +3310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD382F38-FBDC-4562-96C0-6A98D0247431}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -3768,7 +3663,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="E3:E74">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4133,7 +4028,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="E3:E74">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4146,7 +4041,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection sqref="A1:G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4453,17 +4348,17 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D3:D121">
-    <cfRule type="cellIs" dxfId="45" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E121">
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G74">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/管理/素材用エクセル/素材リスト.xlsx
+++ b/管理/素材用エクセル/素材リスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHub Repository\LoveBullet\管理\素材用エクセル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5330E8-1BB2-4EA8-B65B-0168BE8542B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D829CA-8D3E-4025-9458-0D02C2E5F13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{EB4999F7-EE9A-4807-BC58-46A21074A228}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{EB4999F7-EE9A-4807-BC58-46A21074A228}"/>
   </bookViews>
   <sheets>
     <sheet name="素材Texture＿汎用" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="素材テクスチャ＿バフデバフ" sheetId="5" r:id="rId4"/>
     <sheet name="素材テクスチャ＿カード" sheetId="3" r:id="rId5"/>
     <sheet name="素材テクスチャ＿パッシブ" sheetId="4" r:id="rId6"/>
-    <sheet name="素材Sound" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="113">
   <si>
     <t>string</t>
     <phoneticPr fontId="2"/>
@@ -50,14 +49,6 @@
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SEorBGM</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Loop</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -733,28 +724,7 @@
     <cellStyle name="チェック セル" xfId="1" builtinId="23"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="36">
     <dxf>
       <fill>
         <patternFill>
@@ -1344,13 +1314,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -1375,19 +1345,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1395,19 +1365,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1415,19 +1385,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1435,19 +1405,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1455,19 +1425,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1475,19 +1445,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1495,16 +1465,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1512,16 +1482,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1529,16 +1499,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1546,16 +1516,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1563,16 +1533,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1580,16 +1550,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1597,16 +1567,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1614,16 +1584,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1631,16 +1601,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
         <v>39</v>
       </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1648,16 +1618,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1665,16 +1635,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1682,16 +1652,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1699,16 +1669,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
         <v>44</v>
       </c>
-      <c r="B21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" t="s">
-        <v>46</v>
-      </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1716,19 +1686,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1736,19 +1706,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1756,19 +1726,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1776,16 +1746,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
         <v>72</v>
       </c>
-      <c r="B25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" t="s">
-        <v>74</v>
-      </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1793,16 +1763,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1810,16 +1780,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
         <v>77</v>
       </c>
-      <c r="B27" t="s">
-        <v>79</v>
-      </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1827,16 +1797,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
         <v>78</v>
       </c>
-      <c r="B28" t="s">
-        <v>80</v>
-      </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1844,16 +1814,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1861,19 +1831,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" t="s">
         <v>83</v>
       </c>
-      <c r="B30" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" t="s">
-        <v>85</v>
-      </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1987,102 +1957,102 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D3:D107 E30">
-    <cfRule type="cellIs" dxfId="38" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D93 E30">
-    <cfRule type="cellIs" dxfId="37" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="33" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D103 E30">
-    <cfRule type="cellIs" dxfId="36" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E9">
-    <cfRule type="cellIs" dxfId="34" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E9">
-    <cfRule type="cellIs" dxfId="33" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E9">
-    <cfRule type="cellIs" dxfId="32" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="28" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F74">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D89 E30">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"Result"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2094,7 +2064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC609BB5-632B-410C-963F-1E5B4E0490D1}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:C15"/>
     </sheetView>
   </sheetViews>
@@ -2118,10 +2088,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
@@ -2143,223 +2113,223 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" t="s">
         <v>93</v>
       </c>
-      <c r="C10" t="s">
-        <v>95</v>
-      </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" t="s">
         <v>105</v>
       </c>
-      <c r="C12" t="s">
-        <v>107</v>
-      </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" t="s">
         <v>108</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
         <v>110</v>
-      </c>
-      <c r="C13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" t="s">
         <v>109</v>
       </c>
-      <c r="B14" t="s">
-        <v>111</v>
-      </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -2545,30 +2515,30 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D3:D59">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E30">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E30">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E30">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E30">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"Result"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2604,13 +2574,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -2635,19 +2605,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2655,19 +2625,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2911,25 +2881,25 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D3:E4">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Fight"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E4">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"Love"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E4">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"End"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"Title"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F74">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2941,7 +2911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550B7D2F-3DC1-4986-8938-4A702B9CDE4A}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:C19"/>
     </sheetView>
   </sheetViews>
@@ -2964,10 +2934,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -2989,13 +2959,13 @@
     </row>
     <row r="3" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -3006,7 +2976,7 @@
     </row>
     <row r="4" spans="1:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -3298,7 +3268,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="E3:E74">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3332,10 +3302,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -3357,13 +3327,13 @@
     </row>
     <row r="3" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -3663,7 +3633,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="E3:E74">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3697,10 +3667,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -3722,13 +3692,13 @@
     </row>
     <row r="3" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -4028,336 +3998,6 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="E3:E74">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E096B0-DC4F-4DED-B721-79584FE38360}">
-  <dimension ref="A1:G51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G51"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="41.25" customWidth="1"/>
-    <col min="2" max="2" width="30.5" customWidth="1"/>
-    <col min="3" max="3" width="28.25" customWidth="1"/>
-    <col min="4" max="4" width="25.5" customWidth="1"/>
-    <col min="5" max="5" width="26.75" customWidth="1"/>
-    <col min="6" max="6" width="34.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.4">
-      <c r="G17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.4">
-      <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.4">
-      <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.4">
-      <c r="G20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.4">
-      <c r="G21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.4">
-      <c r="G22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.4">
-      <c r="G23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.4">
-      <c r="G24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.4">
-      <c r="G25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.4">
-      <c r="G26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.4">
-      <c r="G27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.4">
-      <c r="G28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.4">
-      <c r="G29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="7:7" x14ac:dyDescent="0.4">
-      <c r="G30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="7:7" x14ac:dyDescent="0.4">
-      <c r="G31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="7:7" x14ac:dyDescent="0.4">
-      <c r="G32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.4">
-      <c r="G33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.4">
-      <c r="G34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.4">
-      <c r="G35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.4">
-      <c r="G36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.4">
-      <c r="G37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.4">
-      <c r="G38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.4">
-      <c r="G39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.4">
-      <c r="G40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="7:7" x14ac:dyDescent="0.4">
-      <c r="G41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="7:7" x14ac:dyDescent="0.4">
-      <c r="G42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="7:7" x14ac:dyDescent="0.4">
-      <c r="G43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="7:7" x14ac:dyDescent="0.4">
-      <c r="G44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="7:7" x14ac:dyDescent="0.4">
-      <c r="G45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="7:7" x14ac:dyDescent="0.4">
-      <c r="G46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="7:7" x14ac:dyDescent="0.4">
-      <c r="G47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="7:7" x14ac:dyDescent="0.4">
-      <c r="G48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.4">
-      <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.4">
-      <c r="G50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.4">
-      <c r="G51">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="D3:D121">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E121">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G74">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
